--- a/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
+++ b/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMTR\Repositórios - SMTR\subsidio_recursos_novo\subsidio_recursos\SMTR202212006620_663_2022_12_16\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CB4CA-6EDE-4925-84CA-D864706FDAEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D8F58-280A-4873-8C1D-B22F2771CF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>07:35:00</t>
   </si>
   <si>
-    <t>Tem GPS válido encontrado na tabela status, mas não na tabela de conformidade</t>
-  </si>
-  <si>
     <t>B28631</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>07:10:00</t>
+  </si>
+  <si>
+    <t>Tem GPS válido encontrado na tabela status, mas não na tabela de conformidade = na verdade é circular</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="72.42578125" customWidth="1"/>
+    <col min="9" max="9" width="97.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
@@ -1287,7 +1287,7 @@
         <v>44818.315972222219</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1306,10 +1306,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>34</v>
@@ -1321,7 +1321,7 @@
         <v>44831.318749999999</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1337,13 +1337,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -1355,7 +1355,7 @@
         <v>44818.300694444442</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1371,10 +1371,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>52</v>
@@ -1389,7 +1389,7 @@
         <v>44818.348611111112</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1408,10 +1408,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>34</v>
@@ -1423,7 +1423,7 @@
         <v>44826.331944444442</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>34</v>
@@ -1457,7 +1457,7 @@
         <v>44826.335416666669</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1476,10 +1476,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>19</v>
@@ -1491,7 +1491,7 @@
         <v>44826.274305555547</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -1525,7 +1525,7 @@
         <v>44826.294444444437</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1544,7 +1544,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>33</v>
@@ -1559,7 +1559,7 @@
         <v>44831.331250000003</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>

--- a/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
+++ b/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMTR\Repositórios - SMTR\subsidio_recursos_novo\subsidio_recursos\SMTR202212006620_663_2022_12_16\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D8F58-280A-4873-8C1D-B22F2771CF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251E9B6-7252-45F0-8153-1720C10D9EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="663" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'663'!$A$1:$N$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="72">
   <si>
     <t>data</t>
   </si>
@@ -85,9 +85,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>O veículo existe e operou na linha indicada pelo recurso</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>08:22:00</t>
   </si>
   <si>
-    <t>Viagem inválida - sobreposição de viagem</t>
-  </si>
-  <si>
     <t>06:21:00</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>07:13:00</t>
   </si>
   <si>
-    <t>Tem GPS válido na tabela gps_sppo, mas não na tabela registros_status_viagem</t>
-  </si>
-  <si>
     <t>B28605</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>06:35:00</t>
   </si>
   <si>
-    <t>Viagem inválida - sem sinal inicial/final dentro do raio de 500m</t>
-  </si>
-  <si>
     <t>06:55:00</t>
   </si>
   <si>
@@ -244,7 +232,13 @@
     <t>07:10:00</t>
   </si>
   <si>
-    <t>Tem GPS válido encontrado na tabela status, mas não na tabela de conformidade = na verdade é circular</t>
+    <t>Viagem circular identificada e já paga</t>
+  </si>
+  <si>
+    <t>Viagem circular inválida - sem sinal inicial/final dentro do raio de 500m</t>
+  </si>
+  <si>
+    <t>Viagem duplicada na amostra</t>
   </si>
 </sst>
 </file>
@@ -254,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +262,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -310,12 +304,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +703,7 @@
         <v>44818.279861111107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -724,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3">
         <v>44818.242395833331</v>
@@ -735,7 +723,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -747,19 +735,19 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3">
-        <v>44831.243055555547</v>
+        <v>44818.281944444447</v>
       </c>
       <c r="H3" s="3">
-        <v>44831.281944444447</v>
+        <v>44818.315972222219</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -768,879 +756,906 @@
         <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="3">
-        <v>44831.244201388887</v>
+        <v>44818.242395833331</v>
       </c>
       <c r="N3" s="3">
-        <v>44831.317465277767</v>
+        <v>44818.314270833333</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3">
-        <v>44831.259722222218</v>
+        <v>44818.314583333333</v>
       </c>
       <c r="H4" s="3">
-        <v>44831.296527777777</v>
+        <v>44818.348611111112</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3">
-        <v>44831.260567129633</v>
-      </c>
-      <c r="N4" s="3">
-        <v>44831.330706018518</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3">
-        <v>45112.24722222222</v>
+        <v>44818.261111111111</v>
       </c>
       <c r="H5" s="3">
-        <v>45112.289583333331</v>
+        <v>44818.300694444442</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45112.248541666668</v>
-      </c>
-      <c r="N5" s="3">
-        <v>45112.286041666674</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3">
-        <v>45112.293749999997</v>
+        <v>44826.240277777782</v>
       </c>
       <c r="H6" s="3">
-        <v>45112.331250000003</v>
+        <v>44826.274305555547</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="3">
-        <v>45112.295416666668</v>
-      </c>
-      <c r="N6" s="3">
-        <v>45112.329444444447</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3">
-        <v>45120.247916666667</v>
+        <v>44826.288194444453</v>
       </c>
       <c r="H7" s="3">
-        <v>45120.286111111112</v>
+        <v>44826.331944444442</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="3">
-        <v>45120.248831018522</v>
-      </c>
-      <c r="N7" s="3">
-        <v>45120.285983796297</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
-        <v>45120.294444444437</v>
+        <v>44826.259722222218</v>
       </c>
       <c r="H8" s="3">
-        <v>45120.332638888889</v>
+        <v>44826.294444444437</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="3">
-        <v>45120.296053240738</v>
-      </c>
-      <c r="N8" s="3">
-        <v>45120.33320601852</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3">
-        <v>45125.246527777781</v>
+        <v>44826.296527777777</v>
       </c>
       <c r="H9" s="3">
-        <v>45125.28402777778</v>
+        <v>44826.335416666669</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="3">
-        <v>45125.247719907413</v>
-      </c>
-      <c r="N9" s="3">
-        <v>45125.283483796287</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3">
-        <v>45125.293055555558</v>
+        <v>44831.243055555547</v>
       </c>
       <c r="H10" s="3">
-        <v>45125.32916666667</v>
+        <v>44831.281944444447</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="M10" s="3">
-        <v>45125.294594907413</v>
+        <v>44831.244201388887</v>
       </c>
       <c r="N10" s="3">
-        <v>45125.327233796299</v>
+        <v>44831.317465277767</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3">
-        <v>45112.263888888891</v>
+        <v>44831.285416666673</v>
       </c>
       <c r="H11" s="3">
-        <v>45112.304166666669</v>
+        <v>44831.318749999999</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="3">
-        <v>45112.265300925923</v>
+        <v>44831.244201388887</v>
       </c>
       <c r="N11" s="3">
-        <v>45112.303842592592</v>
+        <v>44831.317465277767</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3">
-        <v>45120.265277777777</v>
+        <v>44831.259722222218</v>
       </c>
       <c r="H12" s="3">
-        <v>45120.308333333327</v>
+        <v>44831.296527777777</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M12" s="3">
-        <v>45120.266006944446</v>
+        <v>44831.260567129633</v>
       </c>
       <c r="N12" s="3">
-        <v>45120.308020833327</v>
+        <v>44831.330706018518</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3">
-        <v>45125.265277777777</v>
+        <v>44831.298611111109</v>
       </c>
       <c r="H13" s="3">
-        <v>45125.301388888889</v>
+        <v>44831.331250000003</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M13" s="3">
-        <v>45125.266053240739</v>
+        <v>44831.260567129633</v>
       </c>
       <c r="N13" s="3">
-        <v>45125.300775462973</v>
+        <v>44831.330706018518</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45112.263888888891</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45112.304166666669</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3">
+        <v>45112.265300925923</v>
+      </c>
+      <c r="N14" s="3">
+        <v>45112.303842592592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45112.263888888891</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45112.304166666669</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45112.24722222222</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45112.289583333331</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3">
+        <v>45112.248541666668</v>
+      </c>
+      <c r="N16" s="3">
+        <v>45112.286041666674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45112.293749999997</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45112.331250000003</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="3">
+        <v>45112.295416666668</v>
+      </c>
+      <c r="N17" s="3">
+        <v>45112.329444444447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45120.26458333333</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45120.30972222222</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="3">
-        <v>45125.307638888888</v>
-      </c>
-      <c r="H14" s="3">
-        <v>45125.348611111112</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45120.265277777777</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45120.308333333327</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="3">
+        <v>45120.266006944446</v>
+      </c>
+      <c r="N19" s="3">
+        <v>45120.308020833327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="3">
-        <v>45125.30841435185</v>
-      </c>
-      <c r="N14" s="3">
-        <v>45125.344872685193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="5">
-        <v>44818.281944444447</v>
-      </c>
-      <c r="H15" s="5">
-        <v>44818.315972222219</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="5">
-        <v>44831.285416666673</v>
-      </c>
-      <c r="H16" s="5">
-        <v>44831.318749999999</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="5">
-        <v>44818.261111111111</v>
-      </c>
-      <c r="H17" s="5">
-        <v>44818.300694444442</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="5">
-        <v>44818.314583333333</v>
-      </c>
-      <c r="H18" s="5">
-        <v>44818.348611111112</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="5">
-        <v>44826.288194444453</v>
-      </c>
-      <c r="H19" s="5">
-        <v>44826.331944444442</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45120.247916666667</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45120.286111111112</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="5">
-        <v>44826.296527777777</v>
-      </c>
-      <c r="H20" s="5">
-        <v>44826.335416666669</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3">
+        <v>45120.248831018522</v>
+      </c>
+      <c r="N20" s="3">
+        <v>45120.285983796297</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3">
-        <v>44826.240277777782</v>
+        <v>45120.294444444437</v>
       </c>
       <c r="H21" s="3">
-        <v>44826.274305555547</v>
+        <v>45120.332638888889</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="3">
+        <v>45120.296053240738</v>
+      </c>
+      <c r="N21" s="3">
+        <v>45120.33320601852</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="3">
-        <v>44826.259722222218</v>
+        <v>45125.265277777777</v>
       </c>
       <c r="H22" s="3">
-        <v>44826.294444444437</v>
+        <v>45125.301388888889</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="3">
+        <v>45125.266053240739</v>
+      </c>
+      <c r="N22" s="3">
+        <v>45125.300775462973</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G23" s="3">
-        <v>44831.298611111109</v>
+        <v>45125.307638888888</v>
       </c>
       <c r="H23" s="3">
-        <v>44831.331250000003</v>
+        <v>45125.348611111112</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="3">
+        <v>45125.30841435185</v>
+      </c>
+      <c r="N23" s="3">
+        <v>45125.344872685193</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3">
-        <v>45112.263888888891</v>
+        <v>45125.246527777781</v>
       </c>
       <c r="H24" s="3">
-        <v>45112.304166666669</v>
+        <v>45125.28402777778</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="3">
+        <v>45125.247719907413</v>
+      </c>
+      <c r="N24" s="3">
+        <v>45125.283483796287</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="3">
-        <v>45120.26458333333</v>
+        <v>45125.293055555558</v>
       </c>
       <c r="H25" s="3">
-        <v>45120.30972222222</v>
+        <v>45125.32916666667</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="3">
+        <v>45125.294594907413</v>
+      </c>
+      <c r="N25" s="3">
+        <v>45125.327233796299</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25" xr:uid="{1678384E-06AE-4DD8-9ED8-863529E7EC46}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
-      <sortCondition ref="I1:I25"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N25" xr:uid="{1678384E-06AE-4DD8-9ED8-863529E7EC46}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
+++ b/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMTR\Repositórios - SMTR\subsidio_recursos_novo\subsidio_recursos\SMTR202212006620_663_2022_12_16\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251E9B6-7252-45F0-8153-1720C10D9EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D003B692-AEC7-4D36-8155-D3EA8DFC5B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3885" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="663" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,6 +304,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,41 +732,31 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
-        <v>44818.281944444447</v>
+        <v>44818.261111111111</v>
       </c>
       <c r="H3" s="3">
-        <v>44818.315972222219</v>
+        <v>44818.300694444442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3">
-        <v>44818.242395833331</v>
-      </c>
-      <c r="N3" s="3">
-        <v>44818.314270833333</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -773,31 +766,41 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="3">
-        <v>44818.314583333333</v>
+        <v>44818.281944444447</v>
       </c>
       <c r="H4" s="3">
-        <v>44818.348611111112</v>
+        <v>44818.315972222219</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44818.242395833331</v>
+      </c>
+      <c r="N4" s="3">
+        <v>44818.314270833333</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -807,22 +810,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3">
-        <v>44818.261111111111</v>
+        <v>44818.314583333333</v>
       </c>
       <c r="H5" s="3">
-        <v>44818.300694444442</v>
+        <v>44818.348611111112</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>70</v>
@@ -875,22 +878,22 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3">
-        <v>44826.288194444453</v>
+        <v>44826.259722222218</v>
       </c>
       <c r="H7" s="3">
-        <v>44826.331944444442</v>
+        <v>44826.294444444437</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>70</v>
@@ -909,22 +912,22 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3">
-        <v>44826.259722222218</v>
+        <v>44826.288194444453</v>
       </c>
       <c r="H8" s="3">
-        <v>44826.294444444437</v>
+        <v>44826.331944444442</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>70</v>
@@ -1021,22 +1024,22 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3">
-        <v>44831.285416666673</v>
+        <v>44831.259722222218</v>
       </c>
       <c r="H11" s="3">
-        <v>44831.318749999999</v>
+        <v>44831.296527777777</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>69</v>
@@ -1045,16 +1048,16 @@
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="3">
-        <v>44831.244201388887</v>
+        <v>44831.260567129633</v>
       </c>
       <c r="N11" s="3">
-        <v>44831.317465277767</v>
+        <v>44831.330706018518</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1065,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3">
-        <v>44831.259722222218</v>
+        <v>44831.285416666673</v>
       </c>
       <c r="H12" s="3">
-        <v>44831.296527777777</v>
+        <v>44831.318749999999</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>69</v>
@@ -1089,16 +1092,16 @@
         <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="3">
-        <v>44831.260567129633</v>
+        <v>44831.244201388887</v>
       </c>
       <c r="N12" s="3">
-        <v>44831.330706018518</v>
+        <v>44831.317465277767</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1123,11 +1126,11 @@
       <c r="G13" s="3">
         <v>44831.298611111109</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>44831.331250000003</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -1153,22 +1156,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="3">
-        <v>45112.263888888891</v>
+        <v>45112.24722222222</v>
       </c>
       <c r="H14" s="3">
-        <v>45112.304166666669</v>
+        <v>45112.289583333331</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>69</v>
@@ -1177,16 +1180,16 @@
         <v>15</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="3">
-        <v>45112.265300925923</v>
+        <v>45112.248541666668</v>
       </c>
       <c r="N14" s="3">
-        <v>45112.303842592592</v>
+        <v>45112.286041666674</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1206,7 +1209,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3">
         <v>45112.263888888891</v>
@@ -1215,13 +1218,23 @@
         <v>45112.304166666669</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3">
+        <v>45112.265300925923</v>
+      </c>
+      <c r="N15" s="3">
+        <v>45112.303842592592</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1231,41 +1244,31 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3">
-        <v>45112.24722222222</v>
+        <v>45112.263888888891</v>
       </c>
       <c r="H16" s="3">
-        <v>45112.289583333331</v>
+        <v>45112.304166666669</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="3">
-        <v>45112.248541666668</v>
-      </c>
-      <c r="N16" s="3">
-        <v>45112.286041666674</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1319,31 +1322,41 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3">
-        <v>45120.26458333333</v>
+        <v>45120.247916666667</v>
       </c>
       <c r="H18" s="3">
-        <v>45120.30972222222</v>
+        <v>45120.286111111112</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3">
+        <v>45120.248831018522</v>
+      </c>
+      <c r="N18" s="3">
+        <v>45120.285983796297</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1356,38 +1369,28 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3">
-        <v>45120.265277777777</v>
+        <v>45120.26458333333</v>
       </c>
       <c r="H19" s="3">
-        <v>45120.308333333327</v>
+        <v>45120.30972222222</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="3">
-        <v>45120.266006944446</v>
-      </c>
-      <c r="N19" s="3">
-        <v>45120.308020833327</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1397,22 +1400,22 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="3">
-        <v>45120.247916666667</v>
+        <v>45120.265277777777</v>
       </c>
       <c r="H20" s="3">
-        <v>45120.286111111112</v>
+        <v>45120.308333333327</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>69</v>
@@ -1421,16 +1424,16 @@
         <v>15</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="3">
-        <v>45120.248831018522</v>
+        <v>45120.266006944446</v>
       </c>
       <c r="N20" s="3">
-        <v>45120.285983796297</v>
+        <v>45120.308020833327</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1485,22 +1488,22 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="3">
-        <v>45125.265277777777</v>
+        <v>45125.246527777781</v>
       </c>
       <c r="H22" s="3">
-        <v>45125.301388888889</v>
+        <v>45125.28402777778</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
@@ -1509,16 +1512,16 @@
         <v>15</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M22" s="3">
-        <v>45125.266053240739</v>
+        <v>45125.247719907413</v>
       </c>
       <c r="N22" s="3">
-        <v>45125.300775462973</v>
+        <v>45125.283483796287</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1532,19 +1535,19 @@
         <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3">
-        <v>45125.307638888888</v>
+        <v>45125.265277777777</v>
       </c>
       <c r="H23" s="3">
-        <v>45125.348611111112</v>
+        <v>45125.301388888889</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>69</v>
@@ -1556,13 +1559,13 @@
         <v>44</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M23" s="3">
-        <v>45125.30841435185</v>
+        <v>45125.266053240739</v>
       </c>
       <c r="N23" s="3">
-        <v>45125.344872685193</v>
+        <v>45125.300775462973</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,19 +1579,19 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G24" s="3">
-        <v>45125.246527777781</v>
+        <v>45125.293055555558</v>
       </c>
       <c r="H24" s="3">
-        <v>45125.28402777778</v>
+        <v>45125.32916666667</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>69</v>
@@ -1600,13 +1603,13 @@
         <v>28</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M24" s="3">
-        <v>45125.247719907413</v>
+        <v>45125.294594907413</v>
       </c>
       <c r="N24" s="3">
-        <v>45125.283483796287</v>
+        <v>45125.327233796299</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1617,22 +1620,22 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="3">
-        <v>45125.293055555558</v>
+        <v>45125.307638888888</v>
       </c>
       <c r="H25" s="3">
-        <v>45125.32916666667</v>
+        <v>45125.348611111112</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>69</v>
@@ -1641,20 +1644,24 @@
         <v>15</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M25" s="3">
-        <v>45125.294594907413</v>
+        <v>45125.30841435185</v>
       </c>
       <c r="N25" s="3">
-        <v>45125.327233796299</v>
+        <v>45125.344872685193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25" xr:uid="{1678384E-06AE-4DD8-9ED8-863529E7EC46}"/>
+  <autoFilter ref="A1:N25" xr:uid="{1678384E-06AE-4DD8-9ED8-863529E7EC46}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
+      <sortCondition ref="G1:G25"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
+++ b/SMTR202212006620_663_2022_12_16/data/output/analise_amostra_pre_solucao_formatado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMTR\Repositórios - SMTR\subsidio_recursos_novo\subsidio_recursos\SMTR202212006620_663_2022_12_16\data\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMTR\Repositórios - SMTR\subsidio_recursos\SMTR202212006620_663_2022_12_16\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D003B692-AEC7-4D36-8155-D3EA8DFC5B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB1368-7E63-4ECB-B42F-E3EBE15AF0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3885" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="663" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
   <si>
     <t>data</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>2022-09-22</t>
-  </si>
-  <si>
-    <t>05:46:00</t>
   </si>
   <si>
     <t>06:35:00</t>
@@ -306,7 +303,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +703,7 @@
         <v>44818.279861111107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -732,35 +729,45 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3">
-        <v>44818.261111111111</v>
+        <v>44818.281944444447</v>
       </c>
       <c r="H3" s="3">
-        <v>44818.300694444442</v>
+        <v>44818.315972222219</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3">
+        <v>44818.242395833331</v>
+      </c>
+      <c r="N3" s="3">
+        <v>44818.314270833333</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -768,67 +775,57 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
+      <c r="D4" s="4">
+        <v>0.24027777777777778</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3">
-        <v>44818.281944444447</v>
+        <v>44826.240277777782</v>
       </c>
       <c r="H4" s="3">
-        <v>44818.315972222219</v>
+        <v>44826.274305555547</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3">
-        <v>44818.242395833331</v>
-      </c>
-      <c r="N4" s="3">
-        <v>44818.314270833333</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="3">
-        <v>44818.314583333333</v>
+        <v>44826.288194444453</v>
       </c>
       <c r="H5" s="3">
-        <v>44818.348611111112</v>
+        <v>44826.331944444442</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -838,7 +835,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -847,121 +844,151 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="3">
-        <v>44826.240277777782</v>
+        <v>44831.243055555547</v>
       </c>
       <c r="H6" s="3">
-        <v>44826.274305555547</v>
+        <v>44831.281944444447</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44831.244201388887</v>
+      </c>
+      <c r="N6" s="3">
+        <v>44831.317465277767</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3">
-        <v>44826.259722222218</v>
+        <v>44831.285416666673</v>
       </c>
       <c r="H7" s="3">
-        <v>44826.294444444437</v>
+        <v>44831.318749999999</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3">
+        <v>44831.244201388887</v>
+      </c>
+      <c r="N7" s="3">
+        <v>44831.317465277767</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
-        <v>44826.288194444453</v>
+        <v>45112.263888888891</v>
       </c>
       <c r="H8" s="3">
-        <v>44826.331944444442</v>
+        <v>45112.304166666669</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45112.265300925923</v>
+      </c>
+      <c r="N8" s="3">
+        <v>45112.303842592592</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="3">
-        <v>44826.296527777777</v>
+        <v>45112.263888888891</v>
       </c>
       <c r="H9" s="3">
-        <v>44826.335416666669</v>
+        <v>45112.304166666669</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>70</v>
@@ -974,178 +1001,168 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3">
-        <v>44831.243055555547</v>
+        <v>45120.26458333333</v>
       </c>
       <c r="H10" s="3">
-        <v>44831.281944444447</v>
+        <v>45120.30972222222</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44831.244201388887</v>
-      </c>
-      <c r="N10" s="3">
-        <v>44831.317465277767</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3">
-        <v>44831.259722222218</v>
+        <v>45120.265277777777</v>
       </c>
       <c r="H11" s="3">
-        <v>44831.296527777777</v>
+        <v>45120.308333333327</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="3">
-        <v>44831.260567129633</v>
+        <v>45120.266006944446</v>
       </c>
       <c r="N11" s="3">
-        <v>44831.330706018518</v>
+        <v>45120.308020833327</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3">
-        <v>44831.285416666673</v>
+        <v>45125.265277777777</v>
       </c>
       <c r="H12" s="3">
-        <v>44831.318749999999</v>
+        <v>45125.301388888889</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="3">
-        <v>44831.244201388887</v>
+        <v>45125.266053240739</v>
       </c>
       <c r="N12" s="3">
-        <v>44831.317465277767</v>
+        <v>45125.300775462973</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="3">
-        <v>44831.298611111109</v>
-      </c>
-      <c r="H13" s="4">
-        <v>44831.331250000003</v>
+        <v>45125.307638888888</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45125.348611111112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M13" s="3">
-        <v>44831.260567129633</v>
+        <v>45125.30841435185</v>
       </c>
       <c r="N13" s="3">
-        <v>44831.330706018518</v>
+        <v>45125.344872685193</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1174,7 +1191,7 @@
         <v>45112.289583333331</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -1200,79 +1217,89 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3">
-        <v>45112.263888888891</v>
+        <v>45112.293749999997</v>
       </c>
       <c r="H15" s="3">
-        <v>45112.304166666669</v>
+        <v>45112.331250000003</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M15" s="3">
-        <v>45112.265300925923</v>
+        <v>45112.295416666668</v>
       </c>
       <c r="N15" s="3">
-        <v>45112.303842592592</v>
+        <v>45112.329444444447</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3">
-        <v>45112.263888888891</v>
+        <v>45120.247916666667</v>
       </c>
       <c r="H16" s="3">
-        <v>45112.304166666669</v>
+        <v>45120.286111111112</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3">
+        <v>45120.248831018522</v>
+      </c>
+      <c r="N16" s="3">
+        <v>45120.285983796297</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -1281,22 +1308,22 @@
         <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="3">
-        <v>45112.293749999997</v>
+        <v>45120.294444444437</v>
       </c>
       <c r="H17" s="3">
-        <v>45112.331250000003</v>
+        <v>45120.332638888889</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -1308,15 +1335,15 @@
         <v>33</v>
       </c>
       <c r="M17" s="3">
-        <v>45112.295416666668</v>
+        <v>45120.296053240738</v>
       </c>
       <c r="N17" s="3">
-        <v>45112.329444444447</v>
+        <v>45120.33320601852</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -1325,22 +1352,22 @@
         <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="3">
-        <v>45120.247916666667</v>
+        <v>45125.246527777781</v>
       </c>
       <c r="H18" s="3">
-        <v>45120.286111111112</v>
+        <v>45125.28402777778</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -1352,314 +1379,284 @@
         <v>19</v>
       </c>
       <c r="M18" s="3">
-        <v>45120.248831018522</v>
+        <v>45125.247719907413</v>
       </c>
       <c r="N18" s="3">
-        <v>45120.285983796297</v>
+        <v>45125.283483796287</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="3">
-        <v>45120.26458333333</v>
+        <v>45125.293055555558</v>
       </c>
       <c r="H19" s="3">
-        <v>45120.30972222222</v>
+        <v>45125.32916666667</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="3">
+        <v>45125.294594907413</v>
+      </c>
+      <c r="N19" s="3">
+        <v>45125.327233796299</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="3">
-        <v>45120.265277777777</v>
+        <v>44831.259722222218</v>
       </c>
       <c r="H20" s="3">
-        <v>45120.308333333327</v>
+        <v>44831.296527777777</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20" s="3">
-        <v>45120.266006944446</v>
+        <v>44831.260567129633</v>
       </c>
       <c r="N20" s="3">
-        <v>45120.308020833327</v>
+        <v>44831.330706018518</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="3">
-        <v>45120.294444444437</v>
+        <v>44831.298611111109</v>
       </c>
       <c r="H21" s="3">
-        <v>45120.332638888889</v>
+        <v>44831.331250000003</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M21" s="3">
-        <v>45120.296053240738</v>
+        <v>44831.260567129633</v>
       </c>
       <c r="N21" s="3">
-        <v>45120.33320601852</v>
+        <v>44831.330706018518</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3">
-        <v>45125.246527777781</v>
+        <v>44818.314583333333</v>
       </c>
       <c r="H22" s="3">
-        <v>45125.28402777778</v>
+        <v>44818.348611111112</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="3">
-        <v>45125.247719907413</v>
-      </c>
-      <c r="N22" s="3">
-        <v>45125.283483796287</v>
-      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="3">
-        <v>45125.265277777777</v>
+        <v>44818.261111111111</v>
       </c>
       <c r="H23" s="3">
-        <v>45125.301388888889</v>
+        <v>44818.300694444442</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="3">
-        <v>45125.266053240739</v>
-      </c>
-      <c r="N23" s="3">
-        <v>45125.300775462973</v>
-      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3">
-        <v>45125.293055555558</v>
+        <v>44826.259722222218</v>
       </c>
       <c r="H24" s="3">
-        <v>45125.32916666667</v>
+        <v>44826.294444444437</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="3">
-        <v>45125.294594907413</v>
-      </c>
-      <c r="N24" s="3">
-        <v>45125.327233796299</v>
-      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="3">
-        <v>45125.307638888888</v>
+        <v>44826.296527777777</v>
       </c>
       <c r="H25" s="3">
-        <v>45125.348611111112</v>
+        <v>44826.335416666669</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="3">
-        <v>45125.30841435185</v>
-      </c>
-      <c r="N25" s="3">
-        <v>45125.344872685193</v>
-      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N25" xr:uid="{1678384E-06AE-4DD8-9ED8-863529E7EC46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
-      <sortCondition ref="G1:G25"/>
+      <sortCondition ref="C1:C25"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
